--- a/doc/paw-app/友班APP项目接口-1114.xlsx
+++ b/doc/paw-app/友班APP项目接口-1114.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Desktop/2019年11月工作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3E6E3-D927-E442-B680-6B4E2F77A8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE61F75-7518-D74C-90A9-29611E6FA06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1300" windowWidth="32480" windowHeight="17440" xr2:uid="{27F595B1-CEFD-2B44-8621-7BAAF9CFEA26}"/>
+    <workbookView xWindow="1120" yWindow="1300" windowWidth="32480" windowHeight="17440" xr2:uid="{27F595B1-CEFD-2B44-8621-7BAAF9CFEA26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>单词列表拉取</t>
   </si>
   <si>
-    <t>按字母排列、按时间排列</t>
-  </si>
-  <si>
     <t>删除单词</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>接口位置</t>
+  </si>
+  <si>
+    <t>按字母排列、按时间排列、获取单词详情接口</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,7 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -327,6 +332,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -647,7 +660,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +670,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,10 +690,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,19 +704,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -717,13 +730,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -736,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -755,16 +768,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -778,16 +791,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,150 +814,150 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="C10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -954,234 +967,234 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>25</v>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>34</v>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>23</v>
+      <c r="B23" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1190,7 +1203,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -1199,7 +1212,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -1208,7 +1221,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G25" xr:uid="{1FE7A553-C671-A945-9831-48AC6BE2EBE9}">

--- a/doc/paw-app/友班APP项目接口-1114.xlsx
+++ b/doc/paw-app/友班APP项目接口-1114.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE61F75-7518-D74C-90A9-29611E6FA06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514BA7B-968A-0D4E-8833-FE91FD7F3C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1300" windowWidth="32480" windowHeight="17440" xr2:uid="{27F595B1-CEFD-2B44-8621-7BAAF9CFEA26}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>编号</t>
   </si>
@@ -136,9 +136,6 @@
     <t>有打卡的天数，日期、开始时间、结束时间、打卡天数</t>
   </si>
   <si>
-    <t>打卡记录列表</t>
-  </si>
-  <si>
     <t>文件下载请求</t>
   </si>
   <si>
@@ -209,13 +206,19 @@
   </si>
   <si>
     <t>按字母排列、按时间排列、获取单词详情接口</t>
+  </si>
+  <si>
+    <t>打卡记录列表 | 接口一致</t>
+  </si>
+  <si>
+    <t>获取文件信息，获取描述信息，获取任务信息</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +229,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,14 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -335,13 +342,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,17 +680,17 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -690,259 +710,259 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -954,245 +974,247 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>51</v>
+      <c r="F25" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -1203,7 +1225,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -1212,7 +1234,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -1221,7 +1243,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G25" xr:uid="{1FE7A553-C671-A945-9831-48AC6BE2EBE9}">

--- a/doc/paw-app/友班APP项目接口-1114.xlsx
+++ b/doc/paw-app/友班APP项目接口-1114.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514BA7B-968A-0D4E-8833-FE91FD7F3C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BE576A-E02B-CA49-BF50-6AE19068CAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1300" windowWidth="32480" windowHeight="17440" xr2:uid="{27F595B1-CEFD-2B44-8621-7BAAF9CFEA26}"/>
   </bookViews>

--- a/doc/paw-app/友班APP项目接口-1114.xlsx
+++ b/doc/paw-app/友班APP项目接口-1114.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BE576A-E02B-CA49-BF50-6AE19068CAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1957CB-FCAC-5F4D-8DA9-A7231C8E0F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1300" windowWidth="32480" windowHeight="17440" xr2:uid="{27F595B1-CEFD-2B44-8621-7BAAF9CFEA26}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
